--- a/hasil_ekstraksi.xlsx
+++ b/hasil_ekstraksi.xlsx
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>file</t>
+          <t>Nama Gambar</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">

--- a/hasil_ekstraksi.xlsx
+++ b/hasil_ekstraksi.xlsx
@@ -467,13 +467,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="C2" t="n">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D2" t="n">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -488,13 +488,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C3" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D3" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -509,13 +509,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C4" t="n">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="D4" t="n">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -530,13 +530,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C5" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -551,13 +551,13 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>177</v>
+      </c>
+      <c r="C6" t="n">
+        <v>128</v>
+      </c>
+      <c r="D6" t="n">
         <v>113</v>
-      </c>
-      <c r="C6" t="n">
-        <v>75</v>
-      </c>
-      <c r="D6" t="n">
-        <v>64</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -572,13 +572,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C7" t="n">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="D7" t="n">
-        <v>62</v>
+        <v>111</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -593,13 +593,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>107</v>
+        <v>168</v>
       </c>
       <c r="C8" t="n">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="D8" t="n">
-        <v>57</v>
+        <v>104</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C9" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="D9" t="n">
-        <v>62</v>
+        <v>108</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -635,13 +635,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D10" t="n">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C11" t="n">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D11" t="n">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -677,13 +677,13 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114</v>
+        <v>177</v>
       </c>
       <c r="C12" t="n">
-        <v>85</v>
+        <v>139</v>
       </c>
       <c r="D12" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -698,13 +698,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C13" t="n">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="D13" t="n">
-        <v>61</v>
+        <v>109</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -719,13 +719,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="C14" t="n">
-        <v>74</v>
+        <v>125</v>
       </c>
       <c r="D14" t="n">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -740,13 +740,13 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C15" t="n">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="D15" t="n">
-        <v>74</v>
+        <v>123</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -761,13 +761,13 @@
         </is>
       </c>
       <c r="B16" t="n">
+        <v>188</v>
+      </c>
+      <c r="C16" t="n">
+        <v>140</v>
+      </c>
+      <c r="D16" t="n">
         <v>121</v>
-      </c>
-      <c r="C16" t="n">
-        <v>85</v>
-      </c>
-      <c r="D16" t="n">
-        <v>72</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -782,13 +782,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C17" t="n">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -803,13 +803,13 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C18" t="n">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="D18" t="n">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -824,13 +824,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="C19" t="n">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="D19" t="n">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -845,13 +845,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C20" t="n">
-        <v>104</v>
+        <v>165</v>
       </c>
       <c r="D20" t="n">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -866,13 +866,13 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C21" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D21" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -887,13 +887,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="C22" t="n">
-        <v>103</v>
+        <v>164</v>
       </c>
       <c r="D22" t="n">
-        <v>56</v>
+        <v>102</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -908,13 +908,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="C23" t="n">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="D23" t="n">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -929,13 +929,13 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="C24" t="n">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="D24" t="n">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -950,13 +950,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C25" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>127</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -971,13 +971,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="C26" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="D26" t="n">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>136</v>
+        <v>207</v>
       </c>
       <c r="C27" t="n">
+        <v>164</v>
+      </c>
+      <c r="D27" t="n">
         <v>103</v>
-      </c>
-      <c r="D27" t="n">
-        <v>58</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -1013,13 +1013,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="C28" t="n">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="D28" t="n">
-        <v>69</v>
+        <v>118</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -1034,13 +1034,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C29" t="n">
-        <v>101</v>
+        <v>161</v>
       </c>
       <c r="D29" t="n">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C30" t="n">
-        <v>99</v>
+        <v>159</v>
       </c>
       <c r="D30" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -1076,13 +1076,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C31" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D31" t="n">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -1097,13 +1097,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C32" t="n">
-        <v>97</v>
+        <v>157</v>
       </c>
       <c r="D32" t="n">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -1118,13 +1118,13 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C33" t="n">
-        <v>100</v>
+        <v>159</v>
       </c>
       <c r="D33" t="n">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -1139,13 +1139,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="C34" t="n">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="D34" t="n">
-        <v>81</v>
+        <v>129</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -1160,13 +1160,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="C35" t="n">
-        <v>113</v>
+        <v>176</v>
       </c>
       <c r="D35" t="n">
-        <v>77</v>
+        <v>125</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -1181,13 +1181,13 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>121</v>
+        <v>187</v>
       </c>
       <c r="C36" t="n">
-        <v>82</v>
+        <v>137</v>
       </c>
       <c r="D36" t="n">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -1202,17 +1202,17 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="C37" t="n">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="D37" t="n">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Mentah</t>
         </is>
       </c>
     </row>
@@ -1223,17 +1223,17 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="C38" t="n">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D38" t="n">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Mentah</t>
         </is>
       </c>
     </row>
@@ -1244,13 +1244,13 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C39" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="D39" t="n">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -1265,13 +1265,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="C40" t="n">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="D40" t="n">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -1286,13 +1286,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C41" t="n">
-        <v>101</v>
+        <v>162</v>
       </c>
       <c r="D41" t="n">
-        <v>63</v>
+        <v>110</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -1307,13 +1307,13 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="C42" t="n">
-        <v>103</v>
+        <v>163</v>
       </c>
       <c r="D42" t="n">
-        <v>61</v>
+        <v>106</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -1328,13 +1328,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C43" t="n">
-        <v>107</v>
+        <v>169</v>
       </c>
       <c r="D43" t="n">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -1349,17 +1349,17 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="C44" t="n">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="D44" t="n">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Mentah</t>
         </is>
       </c>
     </row>
@@ -1370,17 +1370,17 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="C45" t="n">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="D45" t="n">
-        <v>82</v>
+        <v>131</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Mentah</t>
         </is>
       </c>
     </row>
@@ -1391,13 +1391,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>131</v>
+        <v>199</v>
       </c>
       <c r="C46" t="n">
-        <v>122</v>
+        <v>186</v>
       </c>
       <c r="D46" t="n">
-        <v>88</v>
+        <v>136</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -1412,13 +1412,13 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="C47" t="n">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="D47" t="n">
-        <v>72</v>
+        <v>123</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -1433,13 +1433,13 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="C48" t="n">
-        <v>125</v>
+        <v>191</v>
       </c>
       <c r="D48" t="n">
-        <v>87</v>
+        <v>137</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -1454,13 +1454,13 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>108</v>
+        <v>171</v>
       </c>
       <c r="C49" t="n">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D49" t="n">
-        <v>57</v>
+        <v>102</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -1475,13 +1475,13 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>105</v>
+        <v>167</v>
       </c>
       <c r="C50" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D50" t="n">
-        <v>55</v>
+        <v>101</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -1496,13 +1496,13 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C51" t="n">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="D51" t="n">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -1517,13 +1517,13 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C52" t="n">
-        <v>84</v>
+        <v>138</v>
       </c>
       <c r="D52" t="n">
-        <v>76</v>
+        <v>126</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -1538,13 +1538,13 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>106</v>
+        <v>167</v>
       </c>
       <c r="C53" t="n">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D53" t="n">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -1559,17 +1559,17 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>115</v>
+        <v>178</v>
       </c>
       <c r="C54" t="n">
-        <v>130</v>
+        <v>198</v>
       </c>
       <c r="D54" t="n">
-        <v>84</v>
+        <v>135</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Mentah</t>
         </is>
       </c>
     </row>
@@ -1580,13 +1580,13 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C55" t="n">
-        <v>128</v>
+        <v>196</v>
       </c>
       <c r="D55" t="n">
-        <v>79</v>
+        <v>129</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -1601,13 +1601,13 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>118</v>
+        <v>184</v>
       </c>
       <c r="C56" t="n">
-        <v>132</v>
+        <v>200</v>
       </c>
       <c r="D56" t="n">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -1622,13 +1622,13 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C57" t="n">
-        <v>132</v>
+        <v>201</v>
       </c>
       <c r="D57" t="n">
-        <v>91</v>
+        <v>145</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -1643,13 +1643,13 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>110</v>
+        <v>172</v>
       </c>
       <c r="C58" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D58" t="n">
-        <v>74</v>
+        <v>124</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -1664,13 +1664,13 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="C59" t="n">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="D59" t="n">
-        <v>60</v>
+        <v>106</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -1685,13 +1685,13 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>125</v>
+        <v>193</v>
       </c>
       <c r="C60" t="n">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="D60" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -1706,13 +1706,13 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="C61" t="n">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="D61" t="n">
-        <v>62</v>
+        <v>110</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -1727,13 +1727,13 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="C62" t="n">
-        <v>129</v>
+        <v>197</v>
       </c>
       <c r="D62" t="n">
-        <v>61</v>
+        <v>107</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -1748,13 +1748,13 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C63" t="n">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D63" t="n">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -1769,13 +1769,13 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C64" t="n">
-        <v>78</v>
+        <v>130</v>
       </c>
       <c r="D64" t="n">
-        <v>70</v>
+        <v>118</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -1790,13 +1790,13 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="C65" t="n">
-        <v>118</v>
+        <v>182</v>
       </c>
       <c r="D65" t="n">
-        <v>54</v>
+        <v>98</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -1811,13 +1811,13 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="C66" t="n">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="D66" t="n">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -1832,13 +1832,13 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C67" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D67" t="n">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -1853,13 +1853,13 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="C68" t="n">
-        <v>120</v>
+        <v>186</v>
       </c>
       <c r="D68" t="n">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -1874,13 +1874,13 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>109</v>
+        <v>171</v>
       </c>
       <c r="C69" t="n">
-        <v>69</v>
+        <v>119</v>
       </c>
       <c r="D69" t="n">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -1895,13 +1895,13 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="C70" t="n">
-        <v>122</v>
+        <v>188</v>
       </c>
       <c r="D70" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -1916,13 +1916,13 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="C71" t="n">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="D71" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -1937,13 +1937,13 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C72" t="n">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D72" t="n">
-        <v>58</v>
+        <v>104</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -1958,13 +1958,13 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>96</v>
+        <v>155</v>
       </c>
       <c r="C73" t="n">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="D73" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -1979,13 +1979,13 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>102</v>
+        <v>161</v>
       </c>
       <c r="C74" t="n">
-        <v>104</v>
+        <v>163</v>
       </c>
       <c r="D74" t="n">
-        <v>66</v>
+        <v>112</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -2000,13 +2000,13 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>111</v>
+        <v>174</v>
       </c>
       <c r="C75" t="n">
-        <v>110</v>
+        <v>173</v>
       </c>
       <c r="D75" t="n">
-        <v>61</v>
+        <v>108</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -2021,13 +2021,13 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="C76" t="n">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D76" t="n">
-        <v>71</v>
+        <v>120</v>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -2042,13 +2042,13 @@
         </is>
       </c>
       <c r="B77" t="n">
+        <v>172</v>
+      </c>
+      <c r="C77" t="n">
+        <v>174</v>
+      </c>
+      <c r="D77" t="n">
         <v>110</v>
-      </c>
-      <c r="C77" t="n">
-        <v>112</v>
-      </c>
-      <c r="D77" t="n">
-        <v>63</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -2063,13 +2063,13 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>119</v>
+        <v>185</v>
       </c>
       <c r="C78" t="n">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="D78" t="n">
-        <v>68</v>
+        <v>116</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -2084,13 +2084,13 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="C79" t="n">
-        <v>77</v>
+        <v>129</v>
       </c>
       <c r="D79" t="n">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -2105,13 +2105,13 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C80" t="n">
-        <v>64</v>
+        <v>113</v>
       </c>
       <c r="D80" t="n">
-        <v>59</v>
+        <v>106</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -2126,13 +2126,13 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>112</v>
+        <v>175</v>
       </c>
       <c r="C81" t="n">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="D81" t="n">
-        <v>78</v>
+        <v>129</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>

--- a/hasil_ekstraksi.xlsx
+++ b/hasil_ekstraksi.xlsx
@@ -855,7 +855,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -897,7 +897,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -918,7 +918,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -939,7 +939,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -981,7 +981,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1002,7 +1002,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1086,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1128,7 +1128,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1212,7 +1212,7 @@
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1233,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1254,7 +1254,7 @@
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1296,7 +1296,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1317,7 +1317,7 @@
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1338,7 +1338,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1380,7 +1380,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1401,7 +1401,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1443,7 +1443,7 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1464,7 +1464,7 @@
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1485,7 +1485,7 @@
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1548,7 +1548,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1569,7 +1569,7 @@
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1590,7 +1590,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1632,7 +1632,7 @@
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Mentah</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1674,7 +1674,7 @@
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1695,7 +1695,7 @@
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1716,7 +1716,7 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1737,7 +1737,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1758,7 +1758,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1800,7 +1800,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1821,7 +1821,7 @@
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1842,7 +1842,7 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1863,7 +1863,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1947,7 +1947,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1968,7 +1968,7 @@
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -1989,7 +1989,7 @@
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -2010,7 +2010,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
@@ -2052,7 +2052,7 @@
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Setengah Matang</t>
+          <t>Matang</t>
         </is>
       </c>
     </row>
